--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H2">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I2">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J2">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N2">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O2">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P2">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q2">
-        <v>32.99992795429166</v>
+        <v>43.65125805535288</v>
       </c>
       <c r="R2">
-        <v>296.999351588625</v>
+        <v>392.8613224981759</v>
       </c>
       <c r="S2">
-        <v>0.0162448701364557</v>
+        <v>0.01123410116860111</v>
       </c>
       <c r="T2">
-        <v>0.01624487013645571</v>
+        <v>0.01123410116860111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H3">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I3">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J3">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.117555</v>
       </c>
       <c r="O3">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P3">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q3">
-        <v>0.03826852815833333</v>
+        <v>0.02691332905666667</v>
       </c>
       <c r="R3">
-        <v>0.3444167534249999</v>
+        <v>0.24221996151</v>
       </c>
       <c r="S3">
-        <v>1.883844325680035E-05</v>
+        <v>6.92642262504892E-06</v>
       </c>
       <c r="T3">
-        <v>1.883844325680036E-05</v>
+        <v>6.926422625048919E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9766116666666665</v>
+        <v>0.6868273333333333</v>
       </c>
       <c r="H4">
-        <v>2.929835</v>
+        <v>2.060482</v>
       </c>
       <c r="I4">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="J4">
-        <v>0.01639150952104937</v>
+        <v>0.01130642661970366</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N4">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O4">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P4">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q4">
-        <v>0.259615609185</v>
+        <v>0.2541146662111111</v>
       </c>
       <c r="R4">
-        <v>2.336540482665</v>
+        <v>2.2870319959</v>
       </c>
       <c r="S4">
-        <v>0.0001278009413368638</v>
+        <v>6.539902847750456E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001278009413368638</v>
+        <v>6.539902847750455E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.54043200000001</v>
+        <v>53.540432</v>
       </c>
       <c r="H5">
         <v>160.621296</v>
       </c>
       <c r="I5">
-        <v>0.898625862093698</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J5">
-        <v>0.898625862093698</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N5">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O5">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P5">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q5">
-        <v>1809.1432438772</v>
+        <v>3402.758015299925</v>
       </c>
       <c r="R5">
-        <v>16282.2891948948</v>
+        <v>30624.82213769932</v>
       </c>
       <c r="S5">
-        <v>0.8905867035751885</v>
+        <v>0.8757348470386173</v>
       </c>
       <c r="T5">
-        <v>0.8905867035751887</v>
+        <v>0.8757348470386171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.54043200000001</v>
+        <v>53.540432</v>
       </c>
       <c r="H6">
         <v>160.621296</v>
       </c>
       <c r="I6">
-        <v>0.898625862093698</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J6">
-        <v>0.898625862093698</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.117555</v>
       </c>
       <c r="O6">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P6">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q6">
         <v>2.09798182792</v>
@@ -821,10 +821,10 @@
         <v>18.88183645128</v>
       </c>
       <c r="S6">
-        <v>0.001032773234851019</v>
+        <v>0.0005399372470514566</v>
       </c>
       <c r="T6">
-        <v>0.001032773234851019</v>
+        <v>0.0005399372470514566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.54043200000001</v>
+        <v>53.540432</v>
       </c>
       <c r="H7">
         <v>160.621296</v>
       </c>
       <c r="I7">
-        <v>0.898625862093698</v>
+        <v>0.8813728519762372</v>
       </c>
       <c r="J7">
-        <v>0.898625862093698</v>
+        <v>0.881372851976237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N7">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O7">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P7">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q7">
-        <v>14.232813659856</v>
+        <v>19.80906749946667</v>
       </c>
       <c r="R7">
-        <v>128.095322938704</v>
+        <v>178.2816074952</v>
       </c>
       <c r="S7">
-        <v>0.007006385283658311</v>
+        <v>0.005098067690568367</v>
       </c>
       <c r="T7">
-        <v>0.007006385283658311</v>
+        <v>0.005098067690568366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.036118666666667</v>
+        <v>6.476716</v>
       </c>
       <c r="H8">
-        <v>15.108356</v>
+        <v>19.430148</v>
       </c>
       <c r="I8">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="J8">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N8">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O8">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P8">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q8">
-        <v>170.1715828733667</v>
+        <v>411.6271845139626</v>
       </c>
       <c r="R8">
-        <v>1531.5442458603</v>
+        <v>3704.644660625664</v>
       </c>
       <c r="S8">
-        <v>0.08377034242383663</v>
+        <v>0.1059364985245649</v>
       </c>
       <c r="T8">
-        <v>0.08377034242383663</v>
+        <v>0.1059364985245649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.036118666666667</v>
+        <v>6.476716</v>
       </c>
       <c r="H9">
-        <v>15.108356</v>
+        <v>19.430148</v>
       </c>
       <c r="I9">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="J9">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.117555</v>
       </c>
       <c r="O9">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P9">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q9">
-        <v>0.1973403099533333</v>
+        <v>0.25379011646</v>
       </c>
       <c r="R9">
-        <v>1.77606278958</v>
+        <v>2.28411104814</v>
       </c>
       <c r="S9">
-        <v>9.714468808296003E-05</v>
+        <v>6.531550225396243E-05</v>
       </c>
       <c r="T9">
-        <v>9.714468808296004E-05</v>
+        <v>6.531550225396243E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.036118666666667</v>
+        <v>6.476716</v>
       </c>
       <c r="H10">
-        <v>15.108356</v>
+        <v>19.430148</v>
       </c>
       <c r="I10">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="J10">
-        <v>0.08452652153496815</v>
+        <v>0.1066185206043934</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N10">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O10">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P10">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q10">
-        <v>1.338766533516</v>
+        <v>2.396276974733333</v>
       </c>
       <c r="R10">
-        <v>12.048898801644</v>
+        <v>21.5664927726</v>
       </c>
       <c r="S10">
-        <v>0.0006590344230485522</v>
+        <v>0.0006167065775746297</v>
       </c>
       <c r="T10">
-        <v>0.0006590344230485522</v>
+        <v>0.0006167065775746297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.027175</v>
+        <v>0.04265633333333333</v>
       </c>
       <c r="H11">
-        <v>0.081525</v>
+        <v>0.127969</v>
       </c>
       <c r="I11">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657373</v>
       </c>
       <c r="J11">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657372</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N11">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O11">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P11">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q11">
-        <v>0.918249364375</v>
+        <v>2.711019966243555</v>
       </c>
       <c r="R11">
-        <v>8.264244279375001</v>
+        <v>24.399179696192</v>
       </c>
       <c r="S11">
-        <v>0.0004520264922340512</v>
+        <v>0.0006977089304564248</v>
       </c>
       <c r="T11">
-        <v>0.0004520264922340512</v>
+        <v>0.0006977089304564247</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.027175</v>
+        <v>0.04265633333333333</v>
       </c>
       <c r="H12">
-        <v>0.081525</v>
+        <v>0.127969</v>
       </c>
       <c r="I12">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657373</v>
       </c>
       <c r="J12">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657372</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.117555</v>
       </c>
       <c r="O12">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P12">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q12">
-        <v>0.001064852375</v>
+        <v>0.001671488421666667</v>
       </c>
       <c r="R12">
-        <v>0.009583671375</v>
+        <v>0.015043395795</v>
       </c>
       <c r="S12">
-        <v>5.241947367379558E-07</v>
+        <v>4.301747731379771E-07</v>
       </c>
       <c r="T12">
-        <v>5.241947367379559E-07</v>
+        <v>4.30174773137977E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.027175</v>
+        <v>0.04265633333333333</v>
       </c>
       <c r="H13">
-        <v>0.081525</v>
+        <v>0.127969</v>
       </c>
       <c r="I13">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657373</v>
       </c>
       <c r="J13">
-        <v>0.0004561068502845894</v>
+        <v>0.0007022007996657372</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N13">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O13">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P13">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q13">
-        <v>0.007224011775000001</v>
+        <v>0.01578213239444444</v>
       </c>
       <c r="R13">
-        <v>0.065016105975</v>
+        <v>0.14203919155</v>
       </c>
       <c r="S13">
-        <v>3.556163313800205E-06</v>
+        <v>4.061694436174536E-06</v>
       </c>
       <c r="T13">
-        <v>3.556163313800205E-06</v>
+        <v>4.061694436174536E-06</v>
       </c>
     </row>
   </sheetData>
